--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057A49B5-C494-4D78-BA3D-51FF565F7935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CA1BA-0A40-49EE-A22D-DBE8F46328C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="890" windowWidth="18780" windowHeight="9910" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve"> GAAP CATEGORY PROFILE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAAP GL ACCOUNT CLASS PROFILE </t>
+  </si>
+  <si>
+    <t>Gaap Gl Account Class Profile</t>
   </si>
 </sst>
 </file>
@@ -714,9 +720,15 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D5" s="4"/>
     </row>
   </sheetData>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4CA1BA-0A40-49EE-A22D-DBE8F46328C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76C97F-9BF3-4450-A468-2C9A50966BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="880" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="420" yWindow="760" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Gaap Gl Account Class Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAAP FUNCTION PROFILE</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,6 +734,18 @@
       </c>
       <c r="D5" s="4"/>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A76C97F-9BF3-4450-A468-2C9A50966BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DF476-C32A-4D2B-AD49-E9986B8B116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="760" windowWidth="18780" windowHeight="9920" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Keyword</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t xml:space="preserve"> GAAP FUNCTION PROFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROPRIATION GROUP PROFILE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STATE FUND GROUP PROFILE </t>
+  </si>
+  <si>
+    <t>Appropriation Group Profile</t>
+  </si>
+  <si>
+    <t>State Fund Group Profile</t>
   </si>
 </sst>
 </file>
@@ -658,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,6 +758,48 @@
       </c>
       <c r="D6" s="4"/>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65DF476-C32A-4D2B-AD49-E9986B8B116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F20E9-126D-4151-A3E0-1AB59A71CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9920" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Keyword</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>State Fund Group Profile</t>
+  </si>
+  <si>
+    <t>Nacubo GL Account Category Profile</t>
+  </si>
+  <si>
+    <t>NACUBO G/L ACCOUNT CATEGORY PROFILE</t>
+  </si>
+  <si>
+    <t>NACUBO G/L ACCOUNT CLASS PROFILE</t>
+  </si>
+  <si>
+    <t>Nacubo GL Account Class Profile</t>
   </si>
 </sst>
 </file>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,13 +616,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -618,13 +630,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -632,7 +644,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -645,14 +657,23 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -661,6 +682,11 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,15 +698,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -783,15 +809,27 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_FOU_ListView_D1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4F20E9-126D-4151-A3E0-1AB59A71CBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5917A1-1581-490F-8E53-51776635AFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18780" windowHeight="9920" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{33CF27D2-7EC0-4C80-AF19-A9A561A8257B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>Keyword</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>Nacubo GL Account Class Profile</t>
+  </si>
+  <si>
+    <t>Grant Type Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRANT TYPE PROFILE </t>
+  </si>
+  <si>
+    <t>Grant Category Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT CATEGORY PROFILE </t>
   </si>
 </sst>
 </file>
@@ -554,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB4CBBA-6B11-4753-932F-7C678298ABFC}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,10 +708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33C378F-0C36-415E-9D72-4249D5C1E352}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -833,10 +845,148 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
